--- a/assets/files/Teams.xlsx
+++ b/assets/files/Teams.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neha_Singh12\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF66CFA2-6875-422D-BD8F-84A095DAB62C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B2A94F3-EB17-443A-B13B-EA8BB896A12B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{6D82173B-723F-40A6-9B35-4CE1361ABF23}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
+    <sheet name="Cheerleading_team" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Serial no.</t>
   </si>
@@ -136,6 +137,63 @@
   </si>
   <si>
     <t>sabin_mathew@dell.com</t>
+  </si>
+  <si>
+    <t>Chandresh.Suman@emc.com</t>
+  </si>
+  <si>
+    <t>Partha.Datta@emc.com</t>
+  </si>
+  <si>
+    <t>Sumit.Sahoo@emc.com</t>
+  </si>
+  <si>
+    <t>Masood.Shaik@emc.com</t>
+  </si>
+  <si>
+    <t>kiruba.dhandapani@emc.com</t>
+  </si>
+  <si>
+    <t>Sheetal.Soni@emc.com</t>
+  </si>
+  <si>
+    <t>divya.shrivastav@emc.com</t>
+  </si>
+  <si>
+    <t>Rajiv_gandhi.R@emc.com</t>
+  </si>
+  <si>
+    <t>Sankar.Narayanan@emc.com</t>
+  </si>
+  <si>
+    <t>Pritimay.Tripathy@emc.com</t>
+  </si>
+  <si>
+    <t>Cheerleading</t>
+  </si>
+  <si>
+    <t>Serial No.</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Sugeetha.Subbaraya@emc.com</t>
+  </si>
+  <si>
+    <t>Priyanka.Prabhakar@emc.com</t>
+  </si>
+  <si>
+    <t>Divya.Srivastava@emc.com</t>
+  </si>
+  <si>
+    <t>Yash.Srivastava@emc.com</t>
+  </si>
+  <si>
+    <t>Harshit.Anand@emc.com</t>
+  </si>
+  <si>
+    <t>Captain</t>
   </si>
 </sst>
 </file>
@@ -207,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -217,13 +275,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576110E8-119A-472E-8F6D-A31AED7752AC}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,12 +614,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -648,14 +709,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -721,18 +782,60 @@
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -749,31 +852,189 @@
     <hyperlink ref="C6" r:id="rId8" display="mailto:rohan.devhare@emc.com" xr:uid="{11519915-5AE3-4260-B8A8-57E2AFCB7F8C}"/>
     <hyperlink ref="D6" r:id="rId9" display="mailto:rajmohan.nair@emc.com" xr:uid="{CC2FB299-EBE0-431A-B2E9-3649B72773C2}"/>
     <hyperlink ref="B7" r:id="rId10" xr:uid="{F345D6CB-0AE9-4DF8-90DF-E567F032DC97}"/>
-    <hyperlink ref="C7" r:id="rId11" display="mailto:V.Pandit@emc.com" xr:uid="{92232748-2D5A-4BF1-8A26-1E0731514EFC}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{92232748-2D5A-4BF1-8A26-1E0731514EFC}"/>
     <hyperlink ref="D7" r:id="rId12" display="mailto:Venkata.Reddy2@emc.com" xr:uid="{246700C5-844A-4B7C-8D3C-82D724BE36D2}"/>
-    <hyperlink ref="B8" r:id="rId13" display="mailto:Rudresh.C_s@emc.com" xr:uid="{63BBEBB5-B486-4F17-B985-E66615F541A1}"/>
-    <hyperlink ref="C8" r:id="rId14" display="mailto:shirisha.kandhagatla@emc.com" xr:uid="{97BAF605-49F2-48C4-A770-4D1268776024}"/>
-    <hyperlink ref="D8" r:id="rId15" display="mailto:shirisha.kandhagatla@emc.com" xr:uid="{C8E6ACD3-8FD8-47E5-9D53-C8E86EB5522F}"/>
-    <hyperlink ref="B9" r:id="rId16" display="mailto:Anudeep.P1@emc.com" xr:uid="{E23A5651-01A5-4616-8C02-482AB11A35EE}"/>
-    <hyperlink ref="C9" r:id="rId17" display="mailto:yash.srivastava@emc.com" xr:uid="{BAC6D5FA-9EE5-4F1B-B340-1DBEDA91BBBB}"/>
-    <hyperlink ref="D9" r:id="rId18" display="mailto:srilakshmi.sripad@gmail.com" xr:uid="{A96EF667-126E-4929-BE29-9E7F34480501}"/>
-    <hyperlink ref="B10" r:id="rId19" display="mailto:vasudha.jha@emc.com" xr:uid="{12371C7C-05DF-40F2-8CC1-A7202B1AED0E}"/>
-    <hyperlink ref="C10" r:id="rId20" display="mailto:rishav.sethia@dell.com" xr:uid="{9062D81A-4E6B-43F7-B44E-FB11587220DB}"/>
-    <hyperlink ref="D10" r:id="rId21" display="mailto:Vivek.bhargava@dell.com" xr:uid="{C76AD051-FA78-4E98-871D-2C8FDD5D6E5B}"/>
-    <hyperlink ref="B11" r:id="rId22" display="mailto:tangudu.vamsikrishna@emc.com" xr:uid="{5476A01E-D279-492E-B7B8-B6F5901B19B0}"/>
-    <hyperlink ref="C11" r:id="rId23" display="mailto:Keerthi.j@dell.com" xr:uid="{FCA92A73-0F3E-465F-AFB6-8BB1B84AF033}"/>
-    <hyperlink ref="D11" r:id="rId24" display="mailto:harshit.anand@emc.com" xr:uid="{E6E266DF-AC5E-4971-9735-CA4AA29C9313}"/>
-    <hyperlink ref="B12" r:id="rId25" display="mailto:Aditya.Ranjan@dell.com" xr:uid="{D109DF07-24F8-439F-B5DA-B68287871254}"/>
-    <hyperlink ref="C12" r:id="rId26" display="mailto:n.soni@dell.com" xr:uid="{12CE5023-F11D-4FC0-A55D-6140B87AB99E}"/>
-    <hyperlink ref="D12" r:id="rId27" display="mailto:sagar_kumar_nayak@dell.com" xr:uid="{F03C5595-87F4-4004-8835-BD462F418BAF}"/>
-    <hyperlink ref="B13" r:id="rId28" display="mailto:ajaykumar.kulkarni@emc.com" xr:uid="{0A2C6E52-5880-4189-A523-4A585BC270CE}"/>
-    <hyperlink ref="C13" r:id="rId29" display="mailto:piyush.goswami@dell.com" xr:uid="{28F6A5A2-2E9E-47B3-9996-AB04AE0ED344}"/>
-    <hyperlink ref="B3" r:id="rId30" xr:uid="{2C033825-2771-45FA-9CC0-F4A565F2A984}"/>
-    <hyperlink ref="C3" r:id="rId31" xr:uid="{74AA26A7-B2B3-4751-9AF5-96B7B0C7847A}"/>
-    <hyperlink ref="D3" r:id="rId32" xr:uid="{5A95D826-704E-45B7-89EA-3CE5E7FA5084}"/>
-    <hyperlink ref="D13" r:id="rId33" display="mailto:sabin_mathew@dell.com" xr:uid="{DAF447B0-453A-4EAF-8EBC-5E5A4595F928}"/>
+    <hyperlink ref="C13" r:id="rId13" display="mailto:Rudresh.C_s@emc.com" xr:uid="{63BBEBB5-B486-4F17-B985-E66615F541A1}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{97BAF605-49F2-48C4-A770-4D1268776024}"/>
+    <hyperlink ref="B9" r:id="rId15" display="mailto:Anudeep.P1@emc.com" xr:uid="{E23A5651-01A5-4616-8C02-482AB11A35EE}"/>
+    <hyperlink ref="C9" r:id="rId16" display="mailto:yash.srivastava@emc.com" xr:uid="{BAC6D5FA-9EE5-4F1B-B340-1DBEDA91BBBB}"/>
+    <hyperlink ref="D9" r:id="rId17" display="mailto:srilakshmi.sripad@gmail.com" xr:uid="{A96EF667-126E-4929-BE29-9E7F34480501}"/>
+    <hyperlink ref="B10" r:id="rId18" display="mailto:vasudha.jha@emc.com" xr:uid="{12371C7C-05DF-40F2-8CC1-A7202B1AED0E}"/>
+    <hyperlink ref="C10" r:id="rId19" display="mailto:rishav.sethia@dell.com" xr:uid="{9062D81A-4E6B-43F7-B44E-FB11587220DB}"/>
+    <hyperlink ref="D10" r:id="rId20" display="mailto:Vivek.bhargava@dell.com" xr:uid="{C76AD051-FA78-4E98-871D-2C8FDD5D6E5B}"/>
+    <hyperlink ref="B11" r:id="rId21" display="mailto:tangudu.vamsikrishna@emc.com" xr:uid="{5476A01E-D279-492E-B7B8-B6F5901B19B0}"/>
+    <hyperlink ref="C11" r:id="rId22" display="mailto:Keerthi.j@dell.com" xr:uid="{FCA92A73-0F3E-465F-AFB6-8BB1B84AF033}"/>
+    <hyperlink ref="D11" r:id="rId23" display="mailto:harshit.anand@emc.com" xr:uid="{E6E266DF-AC5E-4971-9735-CA4AA29C9313}"/>
+    <hyperlink ref="B12" r:id="rId24" display="mailto:Aditya.Ranjan@dell.com" xr:uid="{D109DF07-24F8-439F-B5DA-B68287871254}"/>
+    <hyperlink ref="C12" r:id="rId25" display="mailto:n.soni@dell.com" xr:uid="{12CE5023-F11D-4FC0-A55D-6140B87AB99E}"/>
+    <hyperlink ref="D12" r:id="rId26" display="mailto:sagar_kumar_nayak@dell.com" xr:uid="{F03C5595-87F4-4004-8835-BD462F418BAF}"/>
+    <hyperlink ref="B13" r:id="rId27" display="mailto:ajaykumar.kulkarni@emc.com" xr:uid="{0A2C6E52-5880-4189-A523-4A585BC270CE}"/>
+    <hyperlink ref="B8" r:id="rId28" display="mailto:piyush.goswami@dell.com" xr:uid="{28F6A5A2-2E9E-47B3-9996-AB04AE0ED344}"/>
+    <hyperlink ref="B3" r:id="rId29" xr:uid="{2C033825-2771-45FA-9CC0-F4A565F2A984}"/>
+    <hyperlink ref="C3" r:id="rId30" xr:uid="{74AA26A7-B2B3-4751-9AF5-96B7B0C7847A}"/>
+    <hyperlink ref="D3" r:id="rId31" xr:uid="{5A95D826-704E-45B7-89EA-3CE5E7FA5084}"/>
+    <hyperlink ref="D13" r:id="rId32" display="mailto:sabin_mathew@dell.com" xr:uid="{DAF447B0-453A-4EAF-8EBC-5E5A4595F928}"/>
+    <hyperlink ref="C14" r:id="rId33" xr:uid="{4BEF8753-4476-45A5-9CA5-192A2E3D3439}"/>
+    <hyperlink ref="B14" r:id="rId34" xr:uid="{31B95102-5457-4074-ACCD-816537748AFD}"/>
+    <hyperlink ref="D14" r:id="rId35" xr:uid="{865FD17F-F64B-4733-AC5A-FFA911F3DB34}"/>
+    <hyperlink ref="B15" r:id="rId36" display="mailto:Masood.Shaik@emc.com" xr:uid="{3571BDF5-E5B2-42BF-86BF-E26292D50ADA}"/>
+    <hyperlink ref="C15" r:id="rId37" display="mailto:kiruba.dhandapani@emc.com" xr:uid="{613333F8-CCA1-422B-AFF8-7A324D4A25CC}"/>
+    <hyperlink ref="D15" r:id="rId38" xr:uid="{1F7867F6-BA8D-4EB5-829F-68214E08ADE6}"/>
+    <hyperlink ref="D8" r:id="rId39" xr:uid="{9C77A072-31C6-4C94-8565-8F7DEB4C68E9}"/>
+    <hyperlink ref="B16" r:id="rId40" xr:uid="{8FA010F8-29B4-4899-87C9-795642DFFAC4}"/>
+    <hyperlink ref="C16" r:id="rId41" xr:uid="{2837235F-6814-48B3-9148-91F0C3AF39A9}"/>
+    <hyperlink ref="D16" r:id="rId42" xr:uid="{ED063211-95D8-4019-944A-41DFDB43C2A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E70357-937C-40B5-9814-4F276F011FF1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{442A0448-77F5-4FD1-80C1-366889DAC6AF}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{3713E9F7-8996-407C-B553-E95F43DDD8AD}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{2413909C-13FC-497B-B2EC-805658FC9288}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{BFAA9510-B1AE-4C0F-8427-EB99FFDF68FB}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{BAB6853E-F6E5-42D3-B055-9B4937AAB478}"/>
+    <hyperlink ref="B8" r:id="rId6" display="mailto:rohan.devhare@emc.com" xr:uid="{E42BDA03-A98C-4189-A766-9CED6731A592}"/>
+    <hyperlink ref="B9" r:id="rId7" display="mailto:Yash.Srivastava@emc.com" xr:uid="{85FA1900-BDDB-4262-95F5-EEBDF3944C76}"/>
+    <hyperlink ref="B10" r:id="rId8" display="mailto:Harshit.Anand@emc.com" xr:uid="{08089500-140C-4E17-82FA-D7C7D62B24C5}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{B1A5889B-E932-43BD-A046-310E443A1C79}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>